--- a/Entradas_exemplo.xlsx
+++ b/Entradas_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\homer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f131eafe7f2e6cf8/antigo/Documentos/GitHub/KinFit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793A2EF5-CE34-40C0-8CB1-22251AB6C45F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condição Inicial" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,11 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -180,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,18 +457,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -472,11 +482,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -486,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -500,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>420</v>
       </c>
@@ -514,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>62</v>
       </c>
@@ -528,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0.04</v>
       </c>
@@ -542,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0.4</v>
       </c>
@@ -570,30 +580,30 @@
       <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -622,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -651,7 +661,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.3</v>
       </c>
@@ -680,7 +690,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0.8</v>
       </c>
@@ -709,7 +719,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1.25</v>
       </c>
@@ -738,7 +748,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1.75</v>
       </c>
@@ -767,7 +777,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2.25</v>
       </c>
@@ -796,7 +806,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>2.8833333329999999</v>
       </c>
@@ -825,7 +835,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3.3833333329999999</v>
       </c>
@@ -854,7 +864,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>3.7833333329999999</v>
       </c>
@@ -883,7 +893,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4.3833333330000004</v>
       </c>
@@ -912,7 +922,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>4.8833333330000004</v>
       </c>
@@ -954,15 +964,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -980,7 +990,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -993,30 +1025,30 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1074,7 +1106,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
@@ -1103,7 +1135,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1132,7 +1164,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1.5333333330000001</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1190,7 +1222,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2.516666667</v>
       </c>
@@ -1219,7 +1251,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1248,7 +1280,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3.5</v>
       </c>
@@ -1277,7 +1309,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>4.016666667</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4.5</v>
       </c>
@@ -1335,7 +1367,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>5.016666667</v>
       </c>
@@ -1380,12 +1412,12 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1403,8 +1435,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Entradas_exemplo.xlsx
+++ b/Entradas_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f131eafe7f2e6cf8/antigo/Documentos/GitHub/KinFit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793A2EF5-CE34-40C0-8CB1-22251AB6C45F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72355B3-DC3E-4D83-86FE-5299A00F32C3}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7320" yWindow="30" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condição Inicial" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +170,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,6 +194,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +517,7 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -506,7 +531,7 @@
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -520,7 +545,7 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -534,7 +559,7 @@
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -548,7 +573,7 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -562,7 +587,7 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -966,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>

--- a/Entradas_exemplo.xlsx
+++ b/Entradas_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f131eafe7f2e6cf8/antigo/Documentos/GitHub/KinFit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b00fad78b7217dd3/Documentos/GitHub/KinFit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793A2EF5-CE34-40C0-8CB1-22251AB6C45F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{372557F7-971C-46C6-B609-A40613A351B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2448D4AB-2066-4F31-A51F-0927E3CF9E0A}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condição Inicial" sheetId="1" r:id="rId1"/>
@@ -455,20 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -482,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -496,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -510,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>420</v>
       </c>
@@ -524,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>62</v>
       </c>
@@ -538,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.04</v>
       </c>
@@ -552,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.4</v>
       </c>
@@ -574,18 +575,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
@@ -603,7 +605,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -632,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -661,7 +663,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0.3</v>
       </c>
@@ -690,7 +692,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.8</v>
       </c>
@@ -719,7 +721,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1.25</v>
       </c>
@@ -748,7 +750,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1.75</v>
       </c>
@@ -777,7 +779,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2.25</v>
       </c>
@@ -806,7 +808,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2.8833333329999999</v>
       </c>
@@ -835,7 +837,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3.3833333329999999</v>
       </c>
@@ -864,7 +866,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>3.7833333329999999</v>
       </c>
@@ -893,7 +895,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>4.3833333330000004</v>
       </c>
@@ -922,7 +924,7 @@
         <v>36.251818181818201</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>4.8833333330000004</v>
       </c>
@@ -964,15 +966,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -990,21 +993,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1019,18 +1022,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD0803-8065-4AB3-AF25-80CD60E1639B}">
+  <sheetPr codeName="Planilha4"/>
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1052,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1.5333333330000001</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2.516666667</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3.5</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4.016666667</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>4.5</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>35.2663636363636</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>5.016666667</v>
       </c>
@@ -1409,15 +1413,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978FEB43-A9DB-4786-8E9F-7F89C793AD7F}">
+  <sheetPr codeName="Planilha5"/>
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1435,28 +1440,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
